--- a/点表配置样例.xlsx
+++ b/点表配置样例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CF139F-3A9F-4003-9464-5C97B0FF1854}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11185A9-2C9F-46C1-B337-2E906E4A08ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>变量名称</t>
   </si>
@@ -236,6 +236,27 @@
   </si>
   <si>
     <t>var26</t>
+  </si>
+  <si>
+    <t>X12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D312</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var27</t>
+  </si>
+  <si>
+    <t>var28</t>
+  </si>
+  <si>
+    <t>var29</t>
   </si>
 </sst>
 </file>
@@ -609,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -624,7 +645,7 @@
     <col min="5" max="5" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -658,7 +679,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,7 +696,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -692,7 +713,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +730,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -726,7 +747,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -743,7 +764,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -759,8 +780,11 @@
       <c r="E8" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -776,8 +800,11 @@
       <c r="E9" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -793,8 +820,11 @@
       <c r="E10" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -810,8 +840,11 @@
       <c r="E11" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -827,8 +860,11 @@
       <c r="E12" s="1">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>-3254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -845,7 +881,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
@@ -862,7 +898,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -879,7 +915,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1080,6 +1116,57 @@
         <v>59</v>
       </c>
       <c r="E27" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="1">
         <v>1000</v>
       </c>
     </row>
